--- a/pred_ohlcv/54_21/2020-01-21 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>46.15214357999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>50.61104326999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>49.49644326999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>34.57092181999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>36.78962170999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>45.02295045999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>53.79855045999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>47.83775045999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>52.08245042999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>55.64295000999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>60.06032682999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>58.59372543999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>61.81342540999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>53.60622540999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>59.03632540999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>42.17952540999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>43.46977943999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>22.16215405999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>110.57015933</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>110.22045933</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>112.07707267</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>108.07867999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>105.29374477</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>105.0997455</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>107.68984623</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>114.92023289</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>118.55971215</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>119.53576896</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>118.99776799</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>117.78866799</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>117.96746799</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>125.44726799</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>114.49913385</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>114.32673385</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>111.47443414</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>109.78223414</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>109.78223414</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>109.83823414</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>109.62783491</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>111.93577616</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>111.70577616</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>111.89961077</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>114.98087616</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>117.93687616</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>117.93687616</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>117.29547616</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>112.6434761599999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>112.8873761599999</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>92.97727615999995</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>36.91664389999995</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>32.96062123999994</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>28.65508833999993</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>30.22713017999994</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>29.57392925999994</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>32.89462925999994</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>41.28421544999994</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>39.98571313999994</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>40.81001082999995</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>40.57141082999995</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-297.21371809</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-337.2446421599998</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-338.1803421599998</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-426.1985682099997</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-412.2498682099998</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-414.3343452399998</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-412.1680260799998</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-411.3356260799998</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-473.2062962999998</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-444.8651258299999</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-426.5189553299999</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-424.3354553299999</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-424.8425553299999</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-429.9102553299999</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-432.0698553299999</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-434.5092551199999</v>
       </c>
       <c r="H1333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-435.7872551199999</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1335" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>46.15214357999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>50.61104326999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>49.49644326999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>34.57092181999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>36.78962170999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>45.02295045999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>53.79855045999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>47.83775045999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>52.08245042999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>55.64295000999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>60.06032682999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>58.59372543999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>61.81342540999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>53.60622540999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>59.03632540999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>42.17952540999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>43.46977943999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>22.16215405999999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>110.57015933</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>110.22045933</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>112.07707267</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>108.07867999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>105.29374477</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>105.0997455</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>107.68984623</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>114.92023289</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>118.55971215</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>119.53576896</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>118.99776799</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>117.78866799</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>117.96746799</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>125.44726799</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>114.49913385</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>114.32673385</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>111.47443414</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>109.78223414</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>109.78223414</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>109.83823414</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>109.62783491</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>111.93577616</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>111.70577616</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>111.89961077</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>114.98087616</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>117.93687616</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>117.93687616</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>117.29547616</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>112.6434761599999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>36.91664389999995</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>32.96062123999994</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>28.65508833999993</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>30.22713017999994</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>29.57392925999994</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>32.89462925999994</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>41.28421544999994</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>39.98571313999994</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>40.81001082999995</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>40.57141082999995</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-297.21371809</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-337.2446421599998</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-338.1803421599998</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-426.1985682099997</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-412.2498682099998</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-414.3343452399998</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-412.1680260799998</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-411.3356260799998</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-473.2062962999998</v>
       </c>
       <c r="H1273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-483.8985962999998</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-483.8985962999998</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-439.6425865999999</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-441.8821910799999</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-426.5189553299999</v>
       </c>
       <c r="H1328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-424.3354553299999</v>
       </c>
       <c r="H1329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-424.8425553299999</v>
       </c>
       <c r="H1330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-429.9102553299999</v>
       </c>
       <c r="H1331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-432.0698553299999</v>
       </c>
       <c r="H1332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-434.5092551199999</v>
       </c>
       <c r="H1333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-435.7872551199999</v>
       </c>
       <c r="H1334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
